--- a/サーティファイC言語検定_1級_ベースプログラムのフローチャート.xlsx
+++ b/サーティファイC言語検定_1級_ベースプログラムのフローチャート.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="10950" windowHeight="8070" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="10950" windowHeight="8070" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="正答率" sheetId="6" state="hidden" r:id="rId1"/>
-    <sheet name="main関数" sheetId="9" r:id="rId2"/>
-    <sheet name="akicode_tbl_create関数" sheetId="10" r:id="rId3"/>
+    <sheet name="概要" sheetId="12" r:id="rId2"/>
+    <sheet name="main関数" sheetId="9" r:id="rId3"/>
+    <sheet name="akicode_tbl_create関数" sheetId="10" r:id="rId4"/>
+    <sheet name="codedata_tbl_create関数" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t>1回目</t>
     <rPh sb="1" eb="3">
@@ -114,6 +116,309 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>関数一覧</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数名</t>
+    <rPh sb="0" eb="3">
+      <t>カンスウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>akicode_tbl_create</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>main</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>codedata_tbl_create</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>akicode_tbl_read</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kakunin_input</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kojin_data_read</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kojin_data_disp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>main.c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻り値</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員管理メイン制御</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK / NG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>init_kojin_keisoku_tbl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期化された状態の計測データ</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケイソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空きコード表作成</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コード・データ対照表作成</t>
+    <rPh sb="7" eb="9">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計測データ初期化</t>
+    <rPh sb="0" eb="2">
+      <t>ケイソク</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認メッセージ内容</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空きコード表読込み（共通）</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨミコ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行確認入力（共通）</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人計測データ表読込み（共通）</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイソク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨミコ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員コード</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>char型 *msg</t>
+    <rPh sb="4" eb="5">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int型 kaiin_code</t>
+    <rPh sb="3" eb="4">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示会員コード</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示メッセージ</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人計測データ表示（共通）</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイソク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベースプログラムの関数一覧表</t>
+    <rPh sb="9" eb="11">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -144,7 +449,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -167,13 +472,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -185,6 +531,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4485,6 +4849,3264 @@
             <a:gd name="adj1" fmla="val -828280"/>
             <a:gd name="adj2" fmla="val 97871"/>
           </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>73152</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="フローチャート : 端子 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933700" y="285750"/>
+          <a:ext cx="914400" cy="301752"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50673</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フローチャート: 処理 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2562224" y="1152525"/>
+          <a:ext cx="1647825" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>akicode_tbl</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の０番地に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>件数（２００件）を格納</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="片側の 2 つの角を切り取った四角形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2390775" y="2066925"/>
+          <a:ext cx="1981200" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>i=1;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>  i &lt; MEMBER_MAX; i++</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="2895600"/>
+          <a:ext cx="1714500" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>akicode_tbl</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の１番地以降</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>"i" </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の値を設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>642937</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>73152</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3386137" y="587502"/>
+          <a:ext cx="4763" cy="565023"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>642937</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3381375" y="1765173"/>
+          <a:ext cx="4762" cy="301752"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="1"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3381375" y="2476500"/>
+          <a:ext cx="0" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="片側の 2 つの角を切り取った四角形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2390775" y="3790950"/>
+          <a:ext cx="1981200" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3381375" y="3400425"/>
+          <a:ext cx="0" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="フローチャート : 判断 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="4571999"/>
+          <a:ext cx="4295775" cy="1371601"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>空きコード表ファイルが</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>書き込みモードで開けない</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（バイナリモードで更新できない）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>633413</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="18" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3376613" y="4200525"/>
+          <a:ext cx="4762" cy="371474"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="フローチャート : 判断 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143499" y="6248399"/>
+          <a:ext cx="4676776" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>空きコード表ファイルが</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>要素１個あたり</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>akicode_tbl</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>サイズで書き込みできない？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>79248</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="フローチャート: 処理 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847849" y="6667500"/>
+          <a:ext cx="3028951" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>“空きコード表ファイル　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>OPEN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> エラー”</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>と表示し、リターンコードに</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NG</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を格納。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="447238" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="6086475"/>
+          <a:ext cx="447238" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="390107" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10125075" y="6553200"/>
+          <a:ext cx="390107" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+            <a:t>NO</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>633413</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="直線矢印コネクタ 85"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="2"/>
+          <a:endCxn id="23" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3362325" y="5943600"/>
+          <a:ext cx="14288" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="図形 88"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="3"/>
+          <a:endCxn id="22" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="5257800"/>
+          <a:ext cx="1957387" cy="990599"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>130302</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="フローチャート : 端子 92"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2895600" y="11830050"/>
+          <a:ext cx="914400" cy="301752"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>79248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="直線矢印コネクタ 94"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="2"/>
+          <a:endCxn id="106" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3362325" y="7280148"/>
+          <a:ext cx="0" cy="3168777"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>41148</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="フローチャート: 処理 104"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5991224" y="8343900"/>
+          <a:ext cx="3028951" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>“空きコード表ファイル　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>WRITE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> エラー”</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>と表示し、リターンコードに</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NG</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を格納。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>88773</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="フローチャート: 処理 105"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847849" y="10448925"/>
+          <a:ext cx="3028951" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>空きコード表ファイルを閉じる。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>88773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="直線矢印コネクタ 109"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="106" idx="2"/>
+          <a:endCxn id="93" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3352800" y="11061573"/>
+          <a:ext cx="9525" cy="768477"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="直線矢印コネクタ 111"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="2"/>
+          <a:endCxn id="105" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7481887" y="7610474"/>
+          <a:ext cx="23813" cy="733426"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>41148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="カギ線コネクタ 119"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="105" idx="2"/>
+          <a:endCxn id="106" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4687825" y="7631049"/>
+          <a:ext cx="1492377" cy="4143375"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="447238" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="テキスト ボックス 122"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6905625" y="7829550"/>
+          <a:ext cx="447238" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>41148</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="フローチャート: 処理 126"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="8343900"/>
+          <a:ext cx="1752600" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>リターンコードに</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を格納</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="129" name="図形 128"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="3"/>
+          <a:endCxn id="127" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9820275" y="6929437"/>
+          <a:ext cx="809625" cy="1414463"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>41148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="135" name="カギ線コネクタ 134"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="127" idx="2"/>
+          <a:endCxn id="106" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6249925" y="6068949"/>
+          <a:ext cx="1492377" cy="7267575"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 72339"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="390107" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="テキスト ボックス 137"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5543550" y="4857750"/>
+          <a:ext cx="390107" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+            <a:t>NO</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>73152</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="フローチャート : 端子 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933700" y="285750"/>
+          <a:ext cx="914400" cy="301752"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>643499</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>73152</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>646580</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>58269</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3377734" y="577417"/>
+          <a:ext cx="3081" cy="657470"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>554131</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>58269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>49306</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>58270</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="フローチャート : 判断 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1237690" y="1234887"/>
+          <a:ext cx="4280087" cy="1344707"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コード・データ対照表ファイルが</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>書き込みモードで開けない</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（バイナリモードで更新できない）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>387235</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>94366</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>263411</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>84841</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="フローチャート : 判断 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5199431" y="4790605"/>
+          <a:ext cx="4688371" cy="1381953"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コード・データ対照表ファイルが</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>要素１個あたり</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>codedata_tbl</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>分の</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>サイズで書き込みできない？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>487455</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>40342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>87406</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>135278</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="フローチャート: 処理 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1854573" y="3234018"/>
+          <a:ext cx="3017745" cy="599201"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>“コード・データ対照表ファイル　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>OPEN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> エラー”</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>と表示し、リターンコードに</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NG</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を格納。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>658906</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>29695</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="447238" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2709582" y="2719107"/>
+          <a:ext cx="447238" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>262939</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>12486</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="390107" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9787939" y="5142379"/>
+          <a:ext cx="390107" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+            <a:t>NO</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>629211</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>58270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>643499</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>40342</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="14" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3363446" y="2579594"/>
+          <a:ext cx="14288" cy="654424"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>49306</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>58270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>645299</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>31055</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="図形 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="71" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5492163" y="2004091"/>
+          <a:ext cx="1956707" cy="680357"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>170810</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>399410</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>29693</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="フローチャート : 端子 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2920636" y="9816631"/>
+          <a:ext cx="916057" cy="301279"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>621206</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>135278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>627609</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>113899</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="22" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3342635" y="4026921"/>
+          <a:ext cx="6403" cy="4931621"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>519580</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>97492</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>119531</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>15534</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="フローチャート: 処理 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6019232" y="6880949"/>
+          <a:ext cx="3037234" cy="613781"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>“コード・データ対照表ファイル　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>WRITE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> エラー”</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>と表示し、リターンコードに</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NG</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を格納。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>481052</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>113899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>81003</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>31942</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="フローチャート: 処理 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1841766" y="8958542"/>
+          <a:ext cx="3001737" cy="625614"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コード・データ対照表ファイルを閉じる。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>624756</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>31942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628839</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76283</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="2"/>
+          <a:endCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3374582" y="9424420"/>
+          <a:ext cx="4083" cy="392211"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>663284</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>84841</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>669052</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>97492</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="21" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7537849" y="6172558"/>
+          <a:ext cx="5768" cy="708391"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>624756</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>15535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>663284</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>113900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="カギ線コネクタ 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+          <a:endCxn id="22" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4798262" y="6071051"/>
+          <a:ext cx="1315908" cy="4163267"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>72439</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>29456</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="447238" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6876010" y="6397599"/>
+          <a:ext cx="447238" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+            <a:t>YES</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>163606</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>97492</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>544606</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>15534</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="フローチャート: 処理 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9688606" y="6996313"/>
+          <a:ext cx="1741714" cy="625614"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>リターンコードに</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を格納</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>263411</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>89604</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>354106</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>97492</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="図形 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="27" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9887802" y="5481582"/>
+          <a:ext cx="778152" cy="1399367"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>621207</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>15533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>354107</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>113898</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="カギ線コネクタ 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="2"/>
+          <a:endCxn id="22" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6282742" y="4681820"/>
+          <a:ext cx="1336615" cy="7216828"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 85631"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>68356</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1121</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="390107" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5536827" y="1513915"/>
+          <a:ext cx="390107" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+            <a:t>NO</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>335056</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>31055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>275184</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>86844</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="片側の 2 つの角を切り取った四角形 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6458270" y="2684448"/>
+          <a:ext cx="1981200" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>i=0;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>  i &lt; MEMBER_MAX; i++</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>489113</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>24370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>162541</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1474</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="正方形/長方形 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6676222" y="3329131"/>
+          <a:ext cx="1735797" cy="498908"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>codedata_tbl</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>に設定</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>348664</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>108615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>288792</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>164405</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="片側の 2 つの角を切り取った四角形 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6471878" y="4177151"/>
+          <a:ext cx="1981200" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2SameRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>648849</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>86844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>669556</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>24370</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="直線矢印コネクタ 91"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="71" idx="1"/>
+          <a:endCxn id="72" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7523414" y="3043735"/>
+          <a:ext cx="20707" cy="285396"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>662457</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>669556</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>108615</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="直線矢印コネクタ 93"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="72" idx="2"/>
+          <a:endCxn id="73" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7537022" y="3828039"/>
+          <a:ext cx="7099" cy="281076"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>662457</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>164405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>669052</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>94366</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="直線矢印コネクタ 97"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="73" idx="3"/>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7537022" y="4512775"/>
+          <a:ext cx="6595" cy="277830"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="arrow"/>
@@ -5027,10 +8649,242 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7">
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="14.25" thickBot="1">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="2:7" ht="14.25" thickTop="1">
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="3"/>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="3"/>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="3"/>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="3"/>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="3"/>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="3"/>
+      <c r="C14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="3"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="3"/>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="D6:E6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F157" sqref="F157"/>
+    <sheetView showGridLines="0" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5042,17 +8896,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>